--- a/biology/Médecine/Stanislas_de_Sèze/Stanislas_de_Sèze.xlsx
+++ b/biology/Médecine/Stanislas_de_Sèze/Stanislas_de_Sèze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Stanislas_de_S%C3%A8ze</t>
+          <t>Stanislas_de_Sèze</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stanislas de Sèze, né le 22 octobre 1903 à Paris et mort le 27 avril 2000 à Paris, est un professeur de médecine français, père de la rhumatologie française[1]. 
-Président de l'Académie nationale de médecine, il est, en 1969, le créateur de la Revue du rhumatisme, organe de la Société française de rhumatologie[1] (SFR).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stanislas de Sèze, né le 22 octobre 1903 à Paris et mort le 27 avril 2000 à Paris, est un professeur de médecine français, père de la rhumatologie française. 
+Président de l'Académie nationale de médecine, il est, en 1969, le créateur de la Revue du rhumatisme, organe de la Société française de rhumatologie (SFR).
 Il était commandeur de l'ordre national de la Légion d'honneur. 
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stanislas_de_S%C3%A8ze</t>
+          <t>Stanislas_de_Sèze</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Stanislas Paul Marie Joseph de Sèze nait le 22 octobre 1903, rue du Cherche-Midi, dans le 6e arrondissement de Paris. Il est le fils de Jules de Sèze, docteur en médecine, et de Elizabeth Marie Pauline Dauchez. Il se marie le 1er octobre 1926, à Tarbes, avec Simone Marie Françoise Allenou.  
-Il meurt le 27 avril 2000, dans le 15e arrondissement de Paris[2].
+Il meurt le 27 avril 2000, dans le 15e arrondissement de Paris.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stanislas_de_S%C3%A8ze</t>
+          <t>Stanislas_de_Sèze</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,14 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancien interne des hôpitaux de Paris (IHP), ancien chef de clinique à la faculté de médecine de Paris puis médecin des hôpitaux et professeur de rhumatologie, il créa le service de rhumatologie de l’hôpital Lariboisière (centre Viggo-Petersen).
-C'est lui qui, le premier, en  1939, démontre l'origine discale de la sciatique, ouvrant ainsi la voie à son traitement chirurgical[3]. Il a ouvert la rhumatologie à la pratique de la radiographie et des manipulations[4].
+C'est lui qui, le premier, en  1939, démontre l'origine discale de la sciatique, ouvrant ainsi la voie à son traitement chirurgical. Il a ouvert la rhumatologie à la pratique de la radiographie et des manipulations.
 Il fut président de l'Académie nationale de médecine.
-De 1969 à 1971 il dirigea l'European League Against Rheumatism (en)[5] (EULAR).
+De 1969 à 1971 il dirigea l'European League Against Rheumatism (en) (EULAR).
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Stanislas_de_S%C3%A8ze</t>
+          <t>Stanislas_de_Sèze</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une technique de radiographie porte son nom, le cliché de de Sèze : cliché dorso-lombo-pelvi-fémoral de face.
 </t>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Stanislas_de_S%C3%A8ze</t>
+          <t>Stanislas_de_Sèze</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,9 +628,11 @@
           <t>Juste</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une enquête est actuellement en cours pour déterminer s'il peut être déclaré Juste parmi les nations pour son aide à cacher des juifs à l'hôpital de la Cité universitaire et à la clinique Grignon d'Orly durant la Seconde Guerre mondiale[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une enquête est actuellement en cours pour déterminer s'il peut être déclaré Juste parmi les nations pour son aide à cacher des juifs à l'hôpital de la Cité universitaire et à la clinique Grignon d'Orly durant la Seconde Guerre mondiale.
 </t>
         </is>
       </c>
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Stanislas_de_S%C3%A8ze</t>
+          <t>Stanislas_de_Sèze</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,7 +661,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Publication princeps de la Presse Médicale, 1940.
 Maladies des os et des articulations, en coll. avec A. Ryckewaert, Paris, Flammarion, 1953. Plusieurs éditions jusqu'en 1992.
